--- a/bugs backup.xlsx
+++ b/bugs backup.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>load schools from db during the registration</t>
   </si>
@@ -70,6 +70,27 @@
   </si>
   <si>
     <t>student landing page</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>students first page should list current assignments in the center and an option for new assignment on the bottom</t>
+  </si>
+  <si>
+    <t>too much scroll in exe page while an exe has only two lines.</t>
+  </si>
+  <si>
+    <t>when no exe is being passed, the old exe keeps showing</t>
+  </si>
+  <si>
+    <t>assignment status on the first page is not loaded correctly</t>
   </si>
 </sst>
 </file>
@@ -105,8 +126,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -421,65 +443,100 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="90.42578125" customWidth="1"/>
+    <col min="2" max="2" width="103.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>42936</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/bugs backup.xlsx
+++ b/bugs backup.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>load schools from db during the registration</t>
   </si>
@@ -91,6 +91,9 @@
   </si>
   <si>
     <t>assignment status on the first page is not loaded correctly</t>
+  </si>
+  <si>
+    <t>when minimizing the screen of exe horizontally the buttons are not aligned</t>
   </si>
 </sst>
 </file>
@@ -443,10 +446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -537,6 +540,11 @@
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
